--- a/output/PORTO_00400490000113.xlsx
+++ b/output/PORTO_00400490000113.xlsx
@@ -2495,10 +2495,10 @@
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>3.590287603326431</v>
+        <v>3.579675806662451</v>
       </c>
       <c r="C192">
-        <v>0.02682894239664546</v>
+        <v>0.02445512600712219</v>
       </c>
     </row>
   </sheetData>

--- a/output/PORTO_00400490000113.xlsx
+++ b/output/PORTO_00400490000113.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PORTO SEGURO MACRO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,2119 +383,1546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2">
-        <v>0.00514432603459225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38411</v>
       </c>
       <c r="B3">
-        <v>0.01736985817667636</v>
-      </c>
-      <c r="C3">
         <v>0.01216296190052146</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4">
-        <v>0.02785520355436666</v>
-      </c>
-      <c r="C4">
         <v>0.01030632595748626</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38472</v>
       </c>
       <c r="B5">
-        <v>0.04083829304451037</v>
-      </c>
-      <c r="C5">
         <v>0.01263124362774803</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6">
-        <v>0.05556567255976619</v>
-      </c>
-      <c r="C6">
         <v>0.01414953659341012</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>0.07197301219955166</v>
-      </c>
-      <c r="C7">
         <v>0.01554364646966722</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8">
-        <v>0.08612947676299498</v>
-      </c>
-      <c r="C8">
         <v>0.01320598970527809</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9">
-        <v>0.1027460792942467</v>
-      </c>
-      <c r="C9">
         <v>0.01529891498827052</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
       <c r="B10">
-        <v>0.1187929127870655</v>
-      </c>
-      <c r="C10">
         <v>0.01455170305668974</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11">
-        <v>0.1339221586761499</v>
-      </c>
-      <c r="C11">
         <v>0.0135228295747738</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>38686</v>
       </c>
       <c r="B12">
-        <v>0.152202964699967</v>
-      </c>
-      <c r="C12">
         <v>0.016121746880015</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13">
-        <v>0.1669658193647858</v>
-      </c>
-      <c r="C13">
         <v>0.01281272060314742</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14">
-        <v>0.1924676734839206</v>
-      </c>
-      <c r="C14">
         <v>0.02185312859721655</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>38776</v>
       </c>
       <c r="B15">
-        <v>0.2090809392478525</v>
-      </c>
-      <c r="C15">
         <v>0.01393183742700099</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16">
-        <v>0.2188384170086703</v>
-      </c>
-      <c r="C16">
         <v>0.008070160933053572</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>38837</v>
       </c>
       <c r="B17">
-        <v>0.2305777074726589</v>
-      </c>
-      <c r="C17">
         <v>0.009631539587338978</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18">
-        <v>0.2368800919500684</v>
-      </c>
-      <c r="C18">
         <v>0.005121484355793626</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>38898</v>
       </c>
       <c r="B19">
-        <v>0.2539391061934857</v>
-      </c>
-      <c r="C19">
         <v>0.01379197090683371</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20">
-        <v>0.2713739306009619</v>
-      </c>
-      <c r="C20">
         <v>0.01390404392156031</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21">
-        <v>0.2861286462675889</v>
-      </c>
-      <c r="C21">
         <v>0.01160533129671193</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>38990</v>
       </c>
       <c r="B22">
-        <v>0.2962976088241118</v>
-      </c>
-      <c r="C22">
         <v>0.007906644942583085</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23">
-        <v>0.3139016034324371</v>
-      </c>
-      <c r="C23">
         <v>0.01358021066188186</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39051</v>
       </c>
       <c r="B24">
-        <v>0.3292596677966781</v>
-      </c>
-      <c r="C24">
         <v>0.01168889993293232</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25">
-        <v>0.3443800725093247</v>
-      </c>
-      <c r="C25">
         <v>0.01137505716825782</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26">
-        <v>0.360486820723374</v>
-      </c>
-      <c r="C26">
         <v>0.01198079958444009</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39141</v>
       </c>
       <c r="B27">
-        <v>0.3686610217380215</v>
-      </c>
-      <c r="C27">
         <v>0.006008291216155426</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28">
-        <v>0.3806114616274754</v>
-      </c>
-      <c r="C28">
         <v>0.008731482594775963</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39202</v>
       </c>
       <c r="B29">
-        <v>0.3974604705850489</v>
-      </c>
-      <c r="C29">
         <v>0.01220401932467796</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>0.4108248377936194</v>
-      </c>
-      <c r="C30">
         <v>0.009563323965060322</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39263</v>
       </c>
       <c r="B31">
-        <v>0.4282727785942388</v>
-      </c>
-      <c r="C31">
         <v>0.01236719139982401</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32">
-        <v>0.4394335800611036</v>
-      </c>
-      <c r="C32">
         <v>0.007814194623137372</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>0.4508092832071473</v>
-      </c>
-      <c r="C33">
         <v>0.007902902435804604</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39355</v>
       </c>
       <c r="B34">
-        <v>0.461145568562688</v>
-      </c>
-      <c r="C34">
         <v>0.007124496289885318</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>0.4680518585006472</v>
-      </c>
-      <c r="C35">
         <v>0.00472662689231762</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39416</v>
       </c>
       <c r="B36">
-        <v>0.4696680339471535</v>
-      </c>
-      <c r="C36">
         <v>0.001100898062386557</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>0.4807332522583454</v>
-      </c>
-      <c r="C37">
         <v>0.007529059662183313</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38">
-        <v>0.4774396534897598</v>
-      </c>
-      <c r="C38">
         <v>-0.002224302563316072</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39507</v>
       </c>
       <c r="B39">
-        <v>0.5009889448434626</v>
-      </c>
-      <c r="C39">
         <v>0.01593925768682225</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40">
-        <v>0.496837735547633</v>
-      </c>
-      <c r="C40">
         <v>-0.002765649480691246</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39568</v>
       </c>
       <c r="B41">
-        <v>0.5227341053902539</v>
-      </c>
-      <c r="C41">
         <v>0.01730071952865786</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42">
-        <v>0.5483102758428418</v>
-      </c>
-      <c r="C42">
         <v>0.01679621567682243</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
       <c r="B43">
-        <v>0.5417469264385286</v>
-      </c>
-      <c r="C43">
         <v>-0.004239040137313799</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44">
-        <v>0.5300670935698599</v>
-      </c>
-      <c r="C44">
         <v>-0.007575713412089846</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45">
-        <v>0.5312036841973951</v>
-      </c>
-      <c r="C45">
         <v>0.0007428371163014091</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>39721</v>
       </c>
       <c r="B46">
-        <v>0.5218236963385372</v>
-      </c>
-      <c r="C46">
         <v>-0.006125891646985293</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47">
-        <v>0.5020811748667406</v>
-      </c>
-      <c r="C47">
         <v>-0.01297293603674099</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>39782</v>
       </c>
       <c r="B48">
-        <v>0.5165687696368977</v>
-      </c>
-      <c r="C48">
         <v>0.009645014538872898</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49">
-        <v>0.5467615453335359</v>
-      </c>
-      <c r="C49">
         <v>0.01990860968597352</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50">
-        <v>0.5601014932372665</v>
-      </c>
-      <c r="C50">
         <v>0.008624437259884266</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>39872</v>
       </c>
       <c r="B51">
-        <v>0.5724932225756136</v>
-      </c>
-      <c r="C51">
         <v>0.007942899479336907</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52">
-        <v>0.5877156618756001</v>
-      </c>
-      <c r="C52">
         <v>0.00968044827249126</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>39933</v>
       </c>
       <c r="B53">
-        <v>0.5998472773076764</v>
-      </c>
-      <c r="C53">
         <v>0.007640924457308129</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54">
-        <v>0.6136521818150935</v>
-      </c>
-      <c r="C54">
         <v>0.008628888959106629</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>39994</v>
       </c>
       <c r="B55">
-        <v>0.6246737289335969</v>
-      </c>
-      <c r="C55">
         <v>0.006830187597246518</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>0.6384619369581772</v>
-      </c>
-      <c r="C56">
         <v>0.008486755081360542</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>0.6472067270458712</v>
-      </c>
-      <c r="C57">
         <v>0.005337194530090184</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>0.6618416108612295</v>
-      </c>
-      <c r="C58">
         <v>0.008884667343245223</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59">
-        <v>0.6730187381393002</v>
-      </c>
-      <c r="C59">
         <v>0.006725747631435519</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>0.6830477166650166</v>
-      </c>
-      <c r="C60">
         <v>0.005994540465739551</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61">
-        <v>0.6959124238364687</v>
-      </c>
-      <c r="C61">
         <v>0.007643697230963697</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62">
-        <v>0.7049535350055536</v>
-      </c>
-      <c r="C62">
         <v>0.00533111913210238</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40237</v>
       </c>
       <c r="B63">
-        <v>0.715367210212088</v>
-      </c>
-      <c r="C63">
         <v>0.006107893847383083</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64">
-        <v>0.7285676389410045</v>
-      </c>
-      <c r="C64">
         <v>0.007695395277658612</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40298</v>
       </c>
       <c r="B65">
-        <v>0.7341025033970827</v>
-      </c>
-      <c r="C65">
         <v>0.003201994721750756</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66">
-        <v>0.7470502798394385</v>
-      </c>
-      <c r="C66">
         <v>0.007466557724812306</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
       <c r="B67">
-        <v>0.757227991501219</v>
-      </c>
-      <c r="C67">
         <v>0.005825654693072613</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68">
-        <v>0.7793507542441822</v>
-      </c>
-      <c r="C68">
         <v>0.01258958020812284</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69">
-        <v>0.7994173547965753</v>
-      </c>
-      <c r="C69">
         <v>0.01127748450075372</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40451</v>
       </c>
       <c r="B70">
-        <v>0.8123594603483884</v>
-      </c>
-      <c r="C70">
         <v>0.007192386756365465</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71">
-        <v>0.8294793246528702</v>
-      </c>
-      <c r="C71">
         <v>0.009446174822951958</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40512</v>
       </c>
       <c r="B72">
-        <v>0.8335720627818253</v>
-      </c>
-      <c r="C72">
         <v>0.002237105428743558</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>0.8507849057410983</v>
-      </c>
-      <c r="C73">
         <v>0.009387601015887093</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74">
-        <v>0.8567903880780756</v>
-      </c>
-      <c r="C74">
         <v>0.003244829973676699</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
       <c r="B75">
-        <v>0.8755057190179796</v>
-      </c>
-      <c r="C75">
         <v>0.0100793988702601</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76">
-        <v>0.8938318045074569</v>
-      </c>
-      <c r="C76">
         <v>0.009771276783455018</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40663</v>
       </c>
       <c r="B77">
-        <v>0.9053492119011177</v>
-      </c>
-      <c r="C77">
         <v>0.006081536579039648</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78">
-        <v>0.9202184186226496</v>
-      </c>
-      <c r="C78">
         <v>0.007803927295141788</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>40724</v>
       </c>
       <c r="B79">
-        <v>0.9314663857560359</v>
-      </c>
-      <c r="C79">
         <v>0.005857649850819824</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80">
-        <v>0.9483173360698702</v>
-      </c>
-      <c r="C80">
         <v>0.008724433641768226</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81">
-        <v>0.9896229605501317</v>
-      </c>
-      <c r="C81">
         <v>0.02120066567984402</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>40816</v>
       </c>
       <c r="B82">
-        <v>1.00763584870172</v>
-      </c>
-      <c r="C82">
         <v>0.009053417913214901</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83">
-        <v>1.033025029210979</v>
-      </c>
-      <c r="C83">
         <v>0.01264630760886098</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>40877</v>
       </c>
       <c r="B84">
-        <v>1.054039290054841</v>
-      </c>
-      <c r="C84">
         <v>0.01033644964617952</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85">
-        <v>1.057549791323556</v>
-      </c>
-      <c r="C85">
         <v>0.001709072112550336</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86">
-        <v>1.088223829387242</v>
-      </c>
-      <c r="C86">
         <v>0.01490804168775628</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>40968</v>
       </c>
       <c r="B87">
-        <v>1.104674328643813</v>
-      </c>
-      <c r="C87">
         <v>0.007877747119377609</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88">
-        <v>1.116913876726189</v>
-      </c>
-      <c r="C88">
         <v>0.005815411874322107</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41029</v>
       </c>
       <c r="B89">
-        <v>1.143277966599908</v>
-      </c>
-      <c r="C89">
         <v>0.01245402099895099</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90">
-        <v>1.169426219180886</v>
-      </c>
-      <c r="C90">
         <v>0.01220012195733022</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41090</v>
       </c>
       <c r="B91">
-        <v>1.180292949096653</v>
-      </c>
-      <c r="C91">
         <v>0.00500903410297604</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92">
-        <v>1.194729754046658</v>
-      </c>
-      <c r="C92">
         <v>0.006621497792755893</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93">
-        <v>1.20739399866285</v>
-      </c>
-      <c r="C93">
         <v>0.005770297957113923</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41182</v>
       </c>
       <c r="B94">
-        <v>1.219448897604086</v>
-      </c>
-      <c r="C94">
         <v>0.005461145109816323</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95">
-        <v>1.233985458760196</v>
-      </c>
-      <c r="C95">
         <v>0.006549626428345334</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41243</v>
       </c>
       <c r="B96">
-        <v>1.262316642079838</v>
-      </c>
-      <c r="C96">
         <v>0.01268190140116898</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97">
-        <v>1.292449510106481</v>
-      </c>
-      <c r="C97">
         <v>0.01331947414705881</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98">
-        <v>1.292648433028825</v>
-      </c>
-      <c r="C98">
         <v>8.677308768079151e-05</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41333</v>
       </c>
       <c r="B99">
-        <v>1.287366414363169</v>
-      </c>
-      <c r="C99">
         <v>-0.002303893867704021</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100">
-        <v>1.282262728694358</v>
-      </c>
-      <c r="C100">
         <v>-0.002231249718787187</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41394</v>
       </c>
       <c r="B101">
-        <v>1.301539217307413</v>
-      </c>
-      <c r="C101">
         <v>0.008446218032085229</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102">
-        <v>1.287827847111861</v>
-      </c>
-      <c r="C102">
         <v>-0.005957478409423955</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41455</v>
       </c>
       <c r="B103">
-        <v>1.285677919812849</v>
-      </c>
-      <c r="C103">
         <v>-0.0009397242461780531</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104">
-        <v>1.310398973817162</v>
-      </c>
-      <c r="C104">
         <v>0.01081563320449686</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105">
-        <v>1.283049503899223</v>
-      </c>
-      <c r="C105">
         <v>-0.01183755283302979</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41547</v>
       </c>
       <c r="B106">
-        <v>1.32051035823923</v>
-      </c>
-      <c r="C106">
         <v>0.01640825320520967</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107">
-        <v>1.331560450401843</v>
-      </c>
-      <c r="C107">
         <v>0.004761923222354136</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41608</v>
       </c>
       <c r="B108">
-        <v>1.321184846557266</v>
-      </c>
-      <c r="C108">
         <v>-0.004450068555069464</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109">
-        <v>1.367244156046397</v>
-      </c>
-      <c r="C109">
         <v>0.01984301662034582</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110">
-        <v>1.34604656955861</v>
-      </c>
-      <c r="C110">
         <v>-0.008954541690870399</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>41698</v>
       </c>
       <c r="B111">
-        <v>1.351986341343363</v>
-      </c>
-      <c r="C111">
         <v>0.002531821772775444</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112">
-        <v>1.362987505660939</v>
-      </c>
-      <c r="C112">
         <v>0.004677392944081538</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>41759</v>
       </c>
       <c r="B113">
-        <v>1.391184630111815</v>
-      </c>
-      <c r="C113">
         <v>0.01193282841459187</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114">
-        <v>1.426394455441751</v>
-      </c>
-      <c r="C114">
         <v>0.01472484595565882</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>41820</v>
       </c>
       <c r="B115">
-        <v>1.44313024043175</v>
-      </c>
-      <c r="C115">
         <v>0.006897388407917315</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116">
-        <v>1.459143247176515</v>
-      </c>
-      <c r="C116">
         <v>0.006554299267293784</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117">
-        <v>1.48154489204701</v>
-      </c>
-      <c r="C117">
         <v>0.009109532312205237</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>41912</v>
       </c>
       <c r="B118">
-        <v>1.487787010796184</v>
-      </c>
-      <c r="C118">
         <v>0.002515416412243399</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
       <c r="B119">
-        <v>1.503501083495004</v>
-      </c>
-      <c r="C119">
         <v>0.006316486351374051</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>41973</v>
       </c>
       <c r="B120">
-        <v>1.525709091559597</v>
-      </c>
-      <c r="C120">
         <v>0.00887078028885413</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121">
-        <v>1.504581146972562</v>
-      </c>
-      <c r="C121">
         <v>-0.008365153634533939</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122">
-        <v>1.557128993121186</v>
-      </c>
-      <c r="C122">
         <v>0.02098069220561793</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42063</v>
       </c>
       <c r="B123">
-        <v>1.606231264825999</v>
-      </c>
-      <c r="C123">
         <v>0.01920210980239978</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>1.578925069994304</v>
-      </c>
-      <c r="C124">
         <v>-0.01047727237418361</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>1.608521218802654</v>
-      </c>
-      <c r="C125">
         <v>0.01147615692782233</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126">
-        <v>1.657179965466514</v>
-      </c>
-      <c r="C126">
         <v>0.0186537668595983</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42185</v>
       </c>
       <c r="B127">
-        <v>1.674095778180609</v>
-      </c>
-      <c r="C127">
         <v>0.006366077169758011</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>1.781502827648067</v>
-      </c>
-      <c r="C128">
         <v>0.04016574512545512</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129">
-        <v>1.738576521631373</v>
-      </c>
-      <c r="C129">
         <v>-0.01543277453828451</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42277</v>
       </c>
       <c r="B130">
-        <v>1.675475577158062</v>
-      </c>
-      <c r="C130">
         <v>-0.02304151225094198</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131">
-        <v>1.747902712602769</v>
-      </c>
-      <c r="C131">
         <v>0.027070751855504</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>1.794392016753346</v>
-      </c>
-      <c r="C132">
         <v>0.01691810410076089</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133">
-        <v>1.826140579691358</v>
-      </c>
-      <c r="C133">
         <v>0.01136152792724454</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134">
-        <v>1.864886893235623</v>
-      </c>
-      <c r="C134">
         <v>0.01370997388548023</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42429</v>
       </c>
       <c r="B135">
-        <v>1.889176294826429</v>
-      </c>
-      <c r="C135">
         <v>0.008478310835990488</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136">
-        <v>1.916593554502318</v>
-      </c>
-      <c r="C136">
         <v>0.009489645794541479</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42490</v>
       </c>
       <c r="B137">
-        <v>2.023552363174129</v>
-      </c>
-      <c r="C137">
         <v>0.03667251081546841</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138">
-        <v>2.048183303690319</v>
-      </c>
-      <c r="C138">
         <v>0.00814635817662257</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>2.088476092596695</v>
-      </c>
-      <c r="C139">
         <v>0.01321862397763107</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140">
-        <v>2.12702544651692</v>
-      </c>
-      <c r="C140">
         <v>0.01248167470443784</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>2.167107519966345</v>
-      </c>
-      <c r="C141">
         <v>0.01281795563706423</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>2.220049456705884</v>
-      </c>
-      <c r="C142">
         <v>0.01671617916530388</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143">
-        <v>2.257358772207849</v>
-      </c>
-      <c r="C143">
         <v>0.01158656598403063</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>2.310042886648894</v>
-      </c>
-      <c r="C144">
         <v>0.01617387525456238</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145">
-        <v>2.389908726601904</v>
-      </c>
-      <c r="C145">
         <v>0.02412833993032248</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>2.429234469136504</v>
-      </c>
-      <c r="C146">
         <v>0.0116008263662073</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>2.489217306014938</v>
-      </c>
-      <c r="C147">
         <v>0.01749161144222899</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148">
-        <v>2.527951271126641</v>
-      </c>
-      <c r="C148">
         <v>0.01110104694394676</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>42855</v>
       </c>
       <c r="B149">
-        <v>2.551981829851141</v>
-      </c>
-      <c r="C149">
         <v>0.006811476938802796</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150">
-        <v>2.566188086890016</v>
-      </c>
-      <c r="C150">
         <v>0.003999529760958964</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>42916</v>
       </c>
       <c r="B151">
-        <v>2.607488051560247</v>
-      </c>
-      <c r="C151">
         <v>0.01158098329756019</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152">
-        <v>2.66600988402679</v>
-      </c>
-      <c r="C152">
         <v>0.01622232191212181</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153">
-        <v>2.700468549209324</v>
-      </c>
-      <c r="C153">
         <v>0.00939950143960977</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43008</v>
       </c>
       <c r="B154">
-        <v>2.765939720425481</v>
-      </c>
-      <c r="C154">
         <v>0.01769267062954683</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155">
-        <v>2.759621798856985</v>
-      </c>
-      <c r="C155">
         <v>-0.001677648087203831</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43069</v>
       </c>
       <c r="B156">
-        <v>2.73404446122782</v>
-      </c>
-      <c r="C156">
         <v>-0.006803167711428082</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157">
-        <v>2.760252914422595</v>
-      </c>
-      <c r="C157">
         <v>0.00701878444858095</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>2.847993015054153</v>
-      </c>
-      <c r="C158">
         <v>0.02333356362680461</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>2.855003338889424</v>
-      </c>
-      <c r="C159">
         <v>0.001821813035482567</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160">
-        <v>2.812633399548811</v>
-      </c>
-      <c r="C160">
         <v>-0.0109908956272966</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>2.793636294138981</v>
-      </c>
-      <c r="C161">
         <v>-0.004982672976656444</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>2.731797739110269</v>
-      </c>
-      <c r="C162">
         <v>-0.01630060191174643</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43281</v>
       </c>
       <c r="B163">
-        <v>2.763980824194239</v>
-      </c>
-      <c r="C163">
         <v>0.008624016448341543</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164">
-        <v>2.821673634317194</v>
-      </c>
-      <c r="C164">
         <v>0.01532760468706851</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165">
-        <v>2.799479697781594</v>
-      </c>
-      <c r="C165">
         <v>-0.005807386673814197</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43373</v>
       </c>
       <c r="B166">
-        <v>2.809305215706819</v>
-      </c>
-      <c r="C166">
         <v>0.002586016693538973</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167">
-        <v>2.927110853681925</v>
-      </c>
-      <c r="C167">
         <v>0.03092575451538004</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>2.929033819520942</v>
-      </c>
-      <c r="C168">
         <v>0.0004896642622689296</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>2.931919493032011</v>
-      </c>
-      <c r="C169">
         <v>0.0007344486312976795</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170">
-        <v>3.053122136605756</v>
-      </c>
-      <c r="C170">
         <v>0.03082531160379443</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43524</v>
       </c>
       <c r="B171">
-        <v>3.048321343025382</v>
-      </c>
-      <c r="C171">
         <v>-0.001184468027009555</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172">
-        <v>3.015495915637157</v>
-      </c>
-      <c r="C172">
         <v>-0.008108404597075292</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43585</v>
       </c>
       <c r="B173">
-        <v>3.03215525007958</v>
-      </c>
-      <c r="C173">
         <v>0.004148761396456146</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174">
-        <v>3.095864288272206</v>
-      </c>
-      <c r="C174">
         <v>0.01580024434608984</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43646</v>
       </c>
       <c r="B175">
-        <v>3.175235346154057</v>
-      </c>
-      <c r="C175">
         <v>0.01937834173586195</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176">
-        <v>3.198670473853549</v>
-      </c>
-      <c r="C176">
         <v>0.00561288783902425</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177">
-        <v>3.204790426332606</v>
-      </c>
-      <c r="C177">
         <v>0.001457592949284159</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>3.201270810914851</v>
-      </c>
-      <c r="C178">
         <v>-0.0008370489515275858</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179">
-        <v>3.245834227277587</v>
-      </c>
-      <c r="C179">
         <v>0.01060712778784967</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>43799</v>
       </c>
       <c r="B180">
-        <v>3.222256346667215</v>
-      </c>
-      <c r="C180">
         <v>-0.005553179740013237</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181">
-        <v>3.337243080649863</v>
-      </c>
-      <c r="C181">
         <v>0.02723348004992898</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182">
-        <v>3.297368807059057</v>
-      </c>
-      <c r="C182">
         <v>-0.009193460649853824</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>43890</v>
       </c>
       <c r="B183">
-        <v>3.360625767762683</v>
-      </c>
-      <c r="C183">
         <v>0.01471992829652335</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184">
-        <v>3.298160198425388</v>
-      </c>
-      <c r="C184">
         <v>-0.0143249094657677</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>43951</v>
       </c>
       <c r="B185">
-        <v>3.401304962814648</v>
-      </c>
-      <c r="C185">
         <v>0.02399742206608457</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186">
-        <v>3.494558188899109</v>
-      </c>
-      <c r="C186">
         <v>0.02118763113947586</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44012</v>
       </c>
       <c r="B187">
-        <v>3.503288940557011</v>
-      </c>
-      <c r="C187">
         <v>0.001942516103021097</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
       <c r="B188">
-        <v>3.614120277904791</v>
-      </c>
-      <c r="C188">
         <v>0.02461119835097025</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189">
-        <v>3.640158979237474</v>
-      </c>
-      <c r="C189">
         <v>0.005643264536768333</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44104</v>
       </c>
       <c r="B190">
-        <v>3.523726743455231</v>
-      </c>
-      <c r="C190">
         <v>-0.02509229453198103</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191">
-        <v>3.470352766462328</v>
-      </c>
-      <c r="C191">
         <v>-0.01179867397386936</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>3.579675806662451</v>
-      </c>
-      <c r="C192">
-        <v>0.02445512600712219</v>
+        <v>0.01918417550635554</v>
       </c>
     </row>
   </sheetData>
